--- a/Employee_Absenteeism/Employee absenteeism.xlsx
+++ b/Employee_Absenteeism/Employee absenteeism.xlsx
@@ -2,28 +2,47 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analyst\Employee_Absenteeism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A31759-2338-45C9-9AE1-91EA2D5A5D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BE9C55-CB7C-4B13-AF58-AB23FE80489A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{727C2554-C7C6-4320-B2C9-4D244BA179FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{727C2554-C7C6-4320-B2C9-4D244BA179FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Absenteeism-data" sheetId="1" r:id="rId1"/>
-    <sheet name="Forecast" sheetId="5" r:id="rId2"/>
-    <sheet name="Bradford index" sheetId="7" r:id="rId3"/>
-    <sheet name="Bradford index - pivot" sheetId="6" r:id="rId4"/>
+    <sheet name="Raport" sheetId="8" r:id="rId1"/>
+    <sheet name="Absenteeism-data" sheetId="1" r:id="rId2"/>
+    <sheet name="Forecast" sheetId="5" r:id="rId3"/>
+    <sheet name="Bradford index" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="Bradford index - pivot" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Absenteeism-data'!$A$1:$E$701</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Absenteeism-data'!$A$1:$E$701</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Forecast!$A$2:$A$44</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Forecast!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Forecast!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Forecast!$B$2:$B$44</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Forecast!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Forecast!$C$2:$C$44</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Forecast!$D$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Forecast!$D$2:$D$44</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Forecast!$E$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Forecast!$E$2:$E$44</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Forecast!$B$2:$B$44</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Forecast!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Forecast!$C$2:$C$44</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Forecast!$D$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Forecast!$D$2:$D$44</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Forecast!$E$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Forecast!$E$2:$E$44</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Forecast!$A$2:$A$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -64,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -110,6 +129,18 @@
   <si>
     <t>(Multiple Items)</t>
   </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t># of days off</t>
+  </si>
+  <si>
+    <t># of reported absences</t>
+  </si>
+  <si>
+    <t>Bradford Factor</t>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +302,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <charset val="238"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +490,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -613,7 +657,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -621,6 +665,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -668,88 +719,39 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF5050"/>
+          <fgColor rgb="FF89A8B2"/>
+          <bgColor rgb="FF89A8B2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEC9F14"/>
+          <bgColor rgb="FFB3C8CF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEC9F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEC9F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FFE5E1DA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -763,7 +765,8 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE5E1DA"/>
+          <fgColor rgb="FF89A8B2"/>
+          <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -777,8 +780,45 @@
     <dxf>
       <fill>
         <patternFill>
-          <fgColor rgb="FF89A8B2"/>
-          <bgColor rgb="FF89A8B2"/>
+          <bgColor rgb="FFF1EFEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <charset val="238"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -841,12 +881,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFEC9F14"/>
       <color rgb="FFF1F0E8"/>
       <color rgb="FFE5E1DA"/>
+      <color rgb="FFF1EFEB"/>
       <color rgb="FFB3C8CF"/>
       <color rgb="FF89A8B2"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFEC9F14"/>
       <color rgb="FFFF5050"/>
     </mruColors>
   </colors>
@@ -862,6 +904,725 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Forecast of employee absence days until the end of 2018</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Forecast!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-FDB2-454D-BB53-9952121E1DF4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FDB2-454D-BB53-9952121E1DF4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Forecast!$B$2:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FDB2-454D-BB53-9952121E1DF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Forecast!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forecast(Number of days)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Forecast!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>mm/yyyy</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Forecast!$C$2:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="34">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>183.85683500498448</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>261.34564439693611</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>235.15478221564078</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>146.07425079949391</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>188.72389698307455</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>266.21270637502613</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>240.02184419373083</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>153.81487830713706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FDB2-454D-BB53-9952121E1DF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="928236064"/>
+        <c:axId val="928237024"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="928236064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928237024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928237024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928236064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -1649,7 +2410,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Forecast!$E$1</c15:sqref>
@@ -1678,7 +2439,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Forecast!$A$2:$A$44</c15:sqref>
@@ -1822,7 +2583,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Forecast!$E$2:$E$44</c15:sqref>
@@ -1863,7 +2624,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-C631-408E-8012-593C9A3554FF}"/>
                   </c:ext>
@@ -2063,6 +2824,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2605,20 +3406,763 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>232410</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373381</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2931795</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{464737C5-B964-4AFF-9F9E-7D7B8598D502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB09BC9-5A21-CDBA-E5AD-3F228D19889C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4831080" y="167640"/>
+          <a:ext cx="7757160" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Employee absences lasting a maximum of 30 days</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" kern="1200">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42DDCB29-0D46-7464-3150-B491E203B7CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4175760" y="647700"/>
+          <a:ext cx="7703820" cy="1653540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>The Bradford </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL"/>
+            <a:t>Factor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> is considered </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>too high </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>if it shows a worrying number of short-term absences. </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pl-PL"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pl-PL"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Recommendations: Analyze absences and conduct interviews with the employee to understand what causes frequent absences. This may be stress, health problems, personal problems or the work situation. </a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>If high Bradford Score is the result of an inappropriate approach to work (e.g. low motivation or unjustified absences), steps should be taken in accordance with HR policy.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="pl-PL" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>The Bradford </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL"/>
+            <a:t>Factor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> of other employees should also be regularly monitored.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20955</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3191,7 +4735,27 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
     </cacheField>
     <cacheField name="Number of days" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="121"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="121" count="19">
+        <n v="41"/>
+        <n v="5"/>
+        <n v="3"/>
+        <n v="9"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="8"/>
+        <n v="4"/>
+        <n v="33"/>
+        <n v="17"/>
+        <n v="6"/>
+        <n v="25"/>
+        <n v="65"/>
+        <n v="57"/>
+        <n v="81"/>
+        <n v="121"/>
+        <n v="113"/>
+        <n v="105"/>
+        <n v="49"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Months (Month and Year)" numFmtId="0" databaseField="0">
       <fieldGroup base="2">
@@ -3263,7 +4827,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="41"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -3277,7 +4841,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -3291,7 +4855,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
@@ -3305,7 +4869,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
@@ -3319,7 +4883,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="5"/>
@@ -3333,7 +4897,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="5"/>
@@ -3347,7 +4911,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -3361,7 +4925,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
@@ -3375,7 +4939,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -3389,7 +4953,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3403,7 +4967,7 @@
     <n v="24"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -3417,7 +4981,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="8"/>
@@ -3431,7 +4995,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -3445,7 +5009,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
@@ -3459,7 +5023,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -3473,7 +5037,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
@@ -3487,7 +5051,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -3501,7 +5065,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="9"/>
@@ -3515,7 +5079,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -3529,7 +5093,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="1"/>
@@ -3543,7 +5107,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="1"/>
@@ -3557,7 +5121,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="10"/>
@@ -3571,7 +5135,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="8"/>
@@ -3585,7 +5149,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="41"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="11"/>
@@ -3599,7 +5163,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="12"/>
@@ -3613,7 +5177,7 @@
     <n v="22"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -3627,7 +5191,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -3641,7 +5205,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -3655,7 +5219,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="13"/>
@@ -3669,7 +5233,7 @@
     <n v="33"/>
     <n v="1"/>
     <n v="5"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -3683,7 +5247,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="8"/>
@@ -3697,7 +5261,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="1"/>
@@ -3711,7 +5275,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="14"/>
@@ -3725,7 +5289,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="13"/>
@@ -3739,7 +5303,7 @@
     <n v="33"/>
     <n v="1"/>
     <n v="5"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="8"/>
@@ -3753,7 +5317,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="8"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="13"/>
@@ -3767,7 +5331,7 @@
     <n v="33"/>
     <n v="1"/>
     <n v="5"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="3"/>
@@ -3781,7 +5345,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -3795,7 +5359,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
@@ -3809,7 +5373,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="15"/>
@@ -3823,7 +5387,7 @@
     <n v="21"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -3837,7 +5401,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -3851,7 +5415,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="16"/>
@@ -3865,7 +5429,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="17"/>
@@ -3879,7 +5443,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -3893,7 +5457,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -3907,7 +5471,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="10"/>
@@ -3921,7 +5485,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="16"/>
@@ -3935,7 +5499,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="19"/>
@@ -3949,7 +5513,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="33"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="2"/>
@@ -3963,7 +5527,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="16"/>
@@ -3977,7 +5541,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -3991,7 +5555,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -4005,7 +5569,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="5"/>
@@ -4019,7 +5583,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="1"/>
@@ -4033,7 +5597,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
@@ -4047,7 +5611,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="19"/>
@@ -4061,7 +5625,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -4075,7 +5639,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="20"/>
@@ -4089,7 +5653,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="4"/>
@@ -4103,7 +5667,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="21"/>
@@ -4117,7 +5681,7 @@
     <n v="25"/>
     <n v="3"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
@@ -4131,7 +5695,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="16"/>
@@ -4145,7 +5709,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="19"/>
@@ -4159,7 +5723,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="16"/>
@@ -4173,7 +5737,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="4"/>
@@ -4187,7 +5751,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="18"/>
@@ -4201,7 +5765,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="22"/>
@@ -4215,7 +5779,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
@@ -4229,7 +5793,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="18"/>
@@ -4243,7 +5807,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="18"/>
@@ -4257,7 +5821,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="10"/>
@@ -4271,7 +5835,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -4285,7 +5849,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -4299,7 +5863,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="1"/>
@@ -4313,7 +5877,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="5"/>
@@ -4327,7 +5891,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="19"/>
@@ -4341,7 +5905,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="6"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="8"/>
@@ -4355,7 +5919,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="5"/>
@@ -4369,7 +5933,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="0"/>
@@ -4383,7 +5947,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="33"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="10"/>
@@ -4397,7 +5961,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="18"/>
@@ -4411,7 +5975,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
@@ -4425,7 +5989,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -4439,7 +6003,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="9"/>
@@ -4453,7 +6017,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -4467,7 +6031,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="1"/>
@@ -4481,7 +6045,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="25"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="23"/>
@@ -4495,7 +6059,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="19"/>
@@ -4509,7 +6073,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="41"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="18"/>
@@ -4523,7 +6087,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="18"/>
@@ -4537,7 +6101,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="19"/>
@@ -4551,7 +6115,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="6"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="0"/>
@@ -4565,7 +6129,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -4579,7 +6143,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="23"/>
@@ -4593,7 +6157,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="19"/>
@@ -4607,7 +6171,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="5"/>
@@ -4621,7 +6185,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="16"/>
@@ -4635,7 +6199,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="65"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="10"/>
@@ -4649,7 +6213,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="4"/>
@@ -4663,7 +6227,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
@@ -4677,7 +6241,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -4691,7 +6255,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
@@ -4705,7 +6269,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="16"/>
@@ -4719,7 +6283,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="57"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="8"/>
@@ -4733,7 +6297,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -4747,7 +6311,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="16"/>
@@ -4761,7 +6325,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
@@ -4775,7 +6339,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="18"/>
@@ -4789,7 +6353,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="8"/>
@@ -4803,7 +6367,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="7"/>
@@ -4817,7 +6381,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -4831,7 +6395,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="16"/>
@@ -4845,7 +6409,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="0"/>
@@ -4859,7 +6423,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="16"/>
@@ -4873,7 +6437,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="18"/>
@@ -4887,7 +6451,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="18"/>
@@ -4901,7 +6465,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="15"/>
@@ -4915,7 +6479,7 @@
     <n v="21"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -4929,7 +6493,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -4943,7 +6507,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="16"/>
@@ -4957,7 +6521,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="16"/>
@@ -4971,7 +6535,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="22"/>
@@ -4985,7 +6549,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -4999,7 +6563,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -5013,7 +6577,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="16"/>
@@ -5027,7 +6591,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="16"/>
@@ -5041,7 +6605,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="16"/>
@@ -5055,7 +6619,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="16"/>
@@ -5069,7 +6633,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="16"/>
@@ -5083,7 +6647,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="16"/>
@@ -5097,7 +6661,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="15"/>
@@ -5111,7 +6675,7 @@
     <n v="21"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="16"/>
@@ -5125,7 +6689,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="18"/>
@@ -5139,7 +6703,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="1"/>
@@ -5153,7 +6717,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="16"/>
@@ -5167,7 +6731,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="7"/>
@@ -5181,7 +6745,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="15"/>
@@ -5195,7 +6759,7 @@
     <n v="21"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="24"/>
@@ -5209,7 +6773,7 @@
     <n v="24"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="24"/>
@@ -5223,7 +6787,7 @@
     <n v="24"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -5237,7 +6801,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -5251,7 +6815,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="9"/>
@@ -5265,7 +6829,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
@@ -5279,7 +6843,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="1"/>
@@ -5293,7 +6857,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="5"/>
@@ -5307,7 +6871,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="11"/>
@@ -5321,7 +6885,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -5335,7 +6899,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="22"/>
@@ -5349,7 +6913,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="11"/>
@@ -5363,7 +6927,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="18"/>
@@ -5377,7 +6941,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="15"/>
@@ -5391,7 +6955,7 @@
     <n v="21"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="9"/>
@@ -5405,7 +6969,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -5419,7 +6983,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="5"/>
@@ -5433,7 +6997,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="14"/>
@@ -5447,7 +7011,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
@@ -5461,7 +7025,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="22"/>
@@ -5475,7 +7039,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="5"/>
@@ -5489,7 +7053,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="41"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -5503,7 +7067,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="23"/>
@@ -5517,7 +7081,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="41"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="12"/>
@@ -5531,7 +7095,7 @@
     <n v="22"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="0"/>
@@ -5545,7 +7109,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="23"/>
@@ -5559,7 +7123,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="19"/>
@@ -5573,7 +7137,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="6"/>
@@ -5587,7 +7151,7 @@
     <n v="24"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="18"/>
@@ -5601,7 +7165,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
@@ -5615,7 +7179,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="0"/>
@@ -5629,7 +7193,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -5643,7 +7207,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="23"/>
@@ -5657,7 +7221,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="10"/>
@@ -5671,7 +7235,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="18"/>
@@ -5685,7 +7249,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="5"/>
@@ -5699,7 +7263,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="18"/>
@@ -5713,7 +7277,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="22"/>
@@ -5727,7 +7291,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="6"/>
@@ -5741,7 +7305,7 @@
     <n v="24"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -5755,7 +7319,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="18"/>
@@ -5769,7 +7333,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -5783,7 +7347,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="25"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="18"/>
@@ -5797,7 +7361,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="2"/>
@@ -5811,7 +7375,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="18"/>
@@ -5825,7 +7389,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="13"/>
@@ -5839,7 +7403,7 @@
     <n v="33"/>
     <n v="1"/>
     <n v="5"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
@@ -5853,7 +7417,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="25"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="19"/>
@@ -5867,7 +7431,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="4"/>
@@ -5881,7 +7445,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="3"/>
@@ -5895,7 +7459,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="7"/>
@@ -5909,7 +7473,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="19"/>
@@ -5923,7 +7487,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="0"/>
@@ -5937,7 +7501,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="7"/>
@@ -5951,7 +7515,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="25"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="18"/>
@@ -5965,7 +7529,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="0"/>
@@ -5979,7 +7543,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="18"/>
@@ -5993,7 +7557,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
@@ -6007,7 +7571,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="19"/>
@@ -6021,7 +7585,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="1"/>
@@ -6035,7 +7599,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
@@ -6049,7 +7613,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="25"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="25"/>
@@ -6063,7 +7627,7 @@
     <n v="21"/>
     <n v="2"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -6077,7 +7641,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="5"/>
@@ -6091,7 +7655,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="57"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="10"/>
@@ -6105,7 +7669,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
@@ -6119,7 +7683,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
@@ -6133,7 +7697,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -6147,7 +7711,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -6161,7 +7725,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -6175,7 +7739,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="25"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="0"/>
@@ -6189,7 +7753,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -6203,7 +7767,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -6217,7 +7781,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="6"/>
@@ -6231,7 +7795,7 @@
     <n v="24"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="15"/>
@@ -6245,7 +7809,7 @@
     <n v="21"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -6259,7 +7823,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="25"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="11"/>
@@ -6273,7 +7837,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
@@ -6287,7 +7851,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="25"/>
@@ -6301,7 +7865,7 @@
     <n v="21"/>
     <n v="2"/>
     <n v="4"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="24"/>
@@ -6315,7 +7879,7 @@
     <n v="24"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="8"/>
@@ -6329,7 +7893,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="3"/>
@@ -6343,7 +7907,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="7"/>
@@ -6357,7 +7921,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
@@ -6371,7 +7935,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="4"/>
@@ -6385,7 +7949,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="81"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="25"/>
@@ -6399,7 +7963,7 @@
     <n v="21"/>
     <n v="2"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -6413,7 +7977,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -6427,7 +7991,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="8"/>
@@ -6441,7 +8005,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="7"/>
@@ -6455,7 +8019,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="25"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="19"/>
@@ -6469,7 +8033,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -6483,7 +8047,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
@@ -6497,7 +8061,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="26"/>
@@ -6511,7 +8075,7 @@
     <n v="36"/>
     <n v="0"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="7"/>
@@ -6525,7 +8089,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
@@ -6539,7 +8103,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -6553,7 +8117,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -6567,7 +8131,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="4"/>
@@ -6581,7 +8145,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="16"/>
@@ -6595,7 +8159,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="16"/>
@@ -6609,7 +8173,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -6623,7 +8187,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="33"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="11"/>
@@ -6637,7 +8201,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="22"/>
@@ -6651,7 +8215,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -6665,7 +8229,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
@@ -6679,7 +8243,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="11"/>
@@ -6693,7 +8257,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="12"/>
@@ -6707,7 +8271,7 @@
     <n v="22"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="11"/>
@@ -6721,7 +8285,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="8"/>
@@ -6735,7 +8299,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -6749,7 +8313,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="5"/>
@@ -6763,7 +8327,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
@@ -6777,7 +8341,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -6791,7 +8355,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -6805,7 +8369,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="8"/>
@@ -6819,7 +8383,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="27"/>
@@ -6833,7 +8397,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -6847,7 +8411,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="10"/>
@@ -6861,7 +8425,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="28"/>
@@ -6875,7 +8439,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="29"/>
@@ -6889,7 +8453,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="4"/>
@@ -6903,7 +8467,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="29"/>
@@ -6917,7 +8481,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="22"/>
@@ -6931,7 +8495,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="12"/>
@@ -6945,7 +8509,7 @@
     <n v="22"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="5"/>
@@ -6959,7 +8523,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="10"/>
@@ -6973,7 +8537,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
@@ -6987,7 +8551,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="4"/>
@@ -7001,7 +8565,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="3"/>
@@ -7015,7 +8579,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="15"/>
@@ -7029,7 +8593,7 @@
     <n v="21"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -7043,7 +8607,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -7057,7 +8621,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="25"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="17"/>
@@ -7071,7 +8635,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
@@ -7085,7 +8649,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="7"/>
@@ -7099,7 +8663,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="30"/>
@@ -7113,7 +8677,7 @@
     <n v="35"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="14"/>
@@ -7127,7 +8691,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="19"/>
@@ -7141,7 +8705,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="7"/>
@@ -7155,7 +8719,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="33"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="2"/>
@@ -7169,7 +8733,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="17"/>
@@ -7183,7 +8747,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="17"/>
@@ -7197,7 +8761,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
@@ -7211,7 +8775,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="4"/>
@@ -7225,7 +8789,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="19"/>
@@ -7239,7 +8803,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -7253,7 +8817,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="19"/>
@@ -7267,7 +8831,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="19"/>
@@ -7281,7 +8845,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="41"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -7295,7 +8859,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -7309,7 +8873,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="3"/>
@@ -7323,7 +8887,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -7337,7 +8901,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
@@ -7351,7 +8915,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="10"/>
@@ -7365,7 +8929,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="1"/>
@@ -7379,7 +8943,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="22"/>
@@ -7393,7 +8957,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="16"/>
@@ -7407,7 +8971,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="21"/>
@@ -7421,7 +8985,7 @@
     <n v="25"/>
     <n v="3"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="17"/>
@@ -7435,7 +8999,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="22"/>
@@ -7449,7 +9013,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="65"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="2"/>
@@ -7463,7 +9027,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="1"/>
@@ -7477,7 +9041,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="17"/>
@@ -7491,7 +9055,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="5"/>
@@ -7505,7 +9069,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="17"/>
@@ -7519,7 +9083,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="17"/>
@@ -7533,7 +9097,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="4"/>
@@ -7547,7 +9111,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="19"/>
@@ -7561,7 +9125,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="22"/>
@@ -7575,7 +9139,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="4"/>
@@ -7589,7 +9153,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="8"/>
@@ -7603,7 +9167,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="5"/>
@@ -7617,7 +9181,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="19"/>
@@ -7631,7 +9195,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="12"/>
@@ -7645,7 +9209,7 @@
     <n v="22"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="22"/>
@@ -7659,7 +9223,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="6"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="22"/>
@@ -7673,7 +9237,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="6"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="4"/>
@@ -7687,7 +9251,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="16"/>
@@ -7701,7 +9265,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="10"/>
@@ -7715,7 +9279,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -7729,7 +9293,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="5"/>
@@ -7743,7 +9307,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="25"/>
@@ -7757,7 +9321,7 @@
     <n v="21"/>
     <n v="2"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
@@ -7771,7 +9335,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="121"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="19"/>
@@ -7785,7 +9349,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="17"/>
@@ -7799,7 +9363,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="11"/>
@@ -7813,7 +9377,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="16"/>
@@ -7827,7 +9391,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="3"/>
@@ -7841,7 +9405,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="3"/>
@@ -7855,7 +9419,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -7869,7 +9433,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="19"/>
@@ -7883,7 +9447,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -7897,7 +9461,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="7"/>
@@ -7911,7 +9475,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -7925,7 +9489,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="5"/>
@@ -7939,7 +9503,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -7953,7 +9517,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="25"/>
@@ -7967,7 +9531,7 @@
     <n v="21"/>
     <n v="2"/>
     <n v="4"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="5"/>
@@ -7981,7 +9545,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="6"/>
@@ -7995,7 +9559,7 @@
     <n v="24"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="18"/>
@@ -8009,7 +9573,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="3"/>
@@ -8023,7 +9587,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -8037,7 +9601,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -8051,7 +9615,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="4"/>
@@ -8065,7 +9629,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="5"/>
@@ -8079,7 +9643,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -8093,7 +9657,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -8107,7 +9671,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
@@ -8121,7 +9685,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="1"/>
@@ -8135,7 +9699,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="12"/>
@@ -8149,7 +9713,7 @@
     <n v="22"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -8163,7 +9727,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="17"/>
@@ -8177,7 +9741,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="3"/>
@@ -8191,7 +9755,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="22"/>
@@ -8205,7 +9769,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="16"/>
@@ -8219,7 +9783,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="5"/>
@@ -8233,7 +9797,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="3"/>
@@ -8247,7 +9811,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -8261,7 +9825,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="3"/>
@@ -8275,7 +9839,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="0"/>
@@ -8289,7 +9853,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="18"/>
@@ -8303,7 +9867,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="6"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="16"/>
@@ -8317,7 +9881,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="33"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="0"/>
@@ -8331,7 +9895,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="1"/>
@@ -8345,7 +9909,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="19"/>
@@ -8359,7 +9923,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="17"/>
@@ -8373,7 +9937,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
@@ -8387,7 +9951,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -8401,7 +9965,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
@@ -8415,7 +9979,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="18"/>
@@ -8429,7 +9993,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
@@ -8443,7 +10007,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="1"/>
@@ -8457,7 +10021,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="16"/>
@@ -8471,7 +10035,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
@@ -8485,7 +10049,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="9"/>
@@ -8499,7 +10063,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -8513,7 +10077,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -8527,7 +10091,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -8541,7 +10105,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -8555,7 +10119,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="7"/>
@@ -8569,7 +10133,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -8583,7 +10147,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -8597,7 +10161,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="7"/>
@@ -8611,7 +10175,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="19"/>
@@ -8625,7 +10189,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="12"/>
@@ -8639,7 +10203,7 @@
     <n v="22"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="2"/>
@@ -8653,7 +10217,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -8667,7 +10231,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="7"/>
@@ -8681,7 +10245,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="25"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="2"/>
@@ -8695,7 +10259,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -8709,7 +10273,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="16"/>
@@ -8723,7 +10287,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="7"/>
@@ -8737,7 +10301,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="7"/>
@@ -8751,7 +10315,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
@@ -8765,7 +10329,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="3"/>
@@ -8779,7 +10343,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -8793,7 +10357,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="23"/>
@@ -8807,7 +10371,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="25"/>
@@ -8821,7 +10385,7 @@
     <n v="21"/>
     <n v="2"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -8835,7 +10399,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="21"/>
@@ -8849,7 +10413,7 @@
     <n v="25"/>
     <n v="3"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="8"/>
@@ -8863,7 +10427,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="3"/>
@@ -8877,7 +10441,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
@@ -8891,7 +10455,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
@@ -8905,7 +10469,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
@@ -8919,7 +10483,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="7"/>
@@ -8933,7 +10497,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="4"/>
@@ -8947,7 +10511,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="3"/>
@@ -8961,7 +10525,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="7"/>
@@ -8975,7 +10539,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="4"/>
@@ -8989,7 +10553,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="1"/>
@@ -9003,7 +10567,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -9017,7 +10581,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -9031,7 +10595,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="11"/>
@@ -9045,7 +10609,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -9059,7 +10623,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="21"/>
@@ -9073,7 +10637,7 @@
     <n v="25"/>
     <n v="3"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="10"/>
@@ -9087,7 +10651,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="11"/>
@@ -9101,7 +10665,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -9115,7 +10679,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
@@ -9129,7 +10693,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="4"/>
@@ -9143,7 +10707,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="121"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="2"/>
@@ -9157,7 +10721,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="16"/>
@@ -9171,7 +10735,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="29"/>
@@ -9185,7 +10749,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="5"/>
@@ -9199,7 +10763,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="17"/>
@@ -9213,7 +10777,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="10"/>
@@ -9227,7 +10791,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="21"/>
@@ -9241,7 +10805,7 @@
     <n v="25"/>
     <n v="3"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="22"/>
@@ -9255,7 +10819,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -9269,7 +10833,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="8"/>
@@ -9283,7 +10847,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="5"/>
@@ -9297,7 +10861,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="23"/>
@@ -9311,7 +10875,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="23"/>
@@ -9325,7 +10889,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="27"/>
@@ -9339,7 +10903,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -9353,7 +10917,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="11"/>
@@ -9367,7 +10931,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="22"/>
@@ -9381,7 +10945,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="16"/>
@@ -9395,7 +10959,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="3"/>
@@ -9409,7 +10973,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="22"/>
@@ -9423,7 +10987,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="16"/>
@@ -9437,7 +11001,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -9451,7 +11015,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="16"/>
@@ -9465,7 +11029,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -9479,7 +11043,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -9493,7 +11057,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="5"/>
@@ -9507,7 +11071,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="19"/>
@@ -9521,7 +11085,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="41"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -9535,7 +11099,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="25"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="7"/>
@@ -9549,7 +11113,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -9563,7 +11127,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="17"/>
@@ -9577,7 +11141,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -9591,7 +11155,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="11"/>
@@ -9605,7 +11169,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="3"/>
@@ -9619,7 +11183,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -9633,7 +11197,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="22"/>
@@ -9647,7 +11211,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -9661,7 +11225,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="4"/>
@@ -9675,7 +11239,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="7"/>
@@ -9689,7 +11253,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="22"/>
@@ -9703,7 +11267,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -9717,7 +11281,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -9731,7 +11295,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="28"/>
@@ -9745,7 +11309,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="11"/>
@@ -9759,7 +11323,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="16"/>
@@ -9773,7 +11337,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="5"/>
@@ -9787,7 +11351,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="16"/>
@@ -9801,7 +11365,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="29"/>
@@ -9815,7 +11379,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -9829,7 +11393,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="13"/>
@@ -9843,7 +11407,7 @@
     <n v="33"/>
     <n v="1"/>
     <n v="5"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="17"/>
@@ -9857,7 +11421,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -9871,7 +11435,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="113"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="7"/>
@@ -9885,7 +11449,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -9899,7 +11463,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="7"/>
@@ -9913,7 +11477,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="6"/>
@@ -9927,7 +11491,7 @@
     <n v="24"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="19"/>
@@ -9941,7 +11505,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="8"/>
@@ -9955,7 +11519,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
@@ -9969,7 +11533,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
@@ -9983,7 +11547,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="23"/>
@@ -9997,7 +11561,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="1"/>
@@ -10011,7 +11575,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="17"/>
@@ -10025,7 +11589,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="7"/>
@@ -10039,7 +11603,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="16"/>
@@ -10053,7 +11617,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="19"/>
@@ -10067,7 +11631,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -10081,7 +11645,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="23"/>
@@ -10095,7 +11659,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="11"/>
@@ -10109,7 +11673,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="3"/>
@@ -10123,7 +11687,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -10137,7 +11701,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="16"/>
@@ -10151,7 +11715,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="6"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="19"/>
@@ -10165,7 +11729,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
@@ -10179,7 +11743,7 @@
     <n v="23"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="0"/>
@@ -10193,7 +11757,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="7"/>
@@ -10207,7 +11771,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="7"/>
@@ -10221,7 +11785,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="16"/>
@@ -10235,7 +11799,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="19"/>
@@ -10249,7 +11813,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="22"/>
@@ -10263,7 +11827,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="10"/>
@@ -10277,7 +11841,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
@@ -10291,7 +11855,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="18"/>
@@ -10305,7 +11869,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="22"/>
@@ -10319,7 +11883,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="21"/>
@@ -10333,7 +11897,7 @@
     <n v="25"/>
     <n v="3"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="8"/>
@@ -10347,7 +11911,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="26"/>
@@ -10361,7 +11925,7 @@
     <n v="36"/>
     <n v="0"/>
     <n v="2"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="31"/>
@@ -10375,7 +11939,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="7"/>
@@ -10389,7 +11953,7 @@
     <n v="23"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="26"/>
@@ -10403,7 +11967,7 @@
     <n v="36"/>
     <n v="0"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="19"/>
@@ -10417,7 +11981,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="16"/>
@@ -10431,7 +11995,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="26"/>
@@ -10445,7 +12009,7 @@
     <n v="36"/>
     <n v="0"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="19"/>
@@ -10459,7 +12023,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="18"/>
@@ -10473,7 +12037,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="21"/>
@@ -10487,7 +12051,7 @@
     <n v="25"/>
     <n v="3"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="21"/>
@@ -10501,7 +12065,7 @@
     <n v="25"/>
     <n v="3"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="18"/>
@@ -10515,7 +12079,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="21"/>
@@ -10529,7 +12093,7 @@
     <n v="25"/>
     <n v="3"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="27"/>
@@ -10543,7 +12107,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="19"/>
@@ -10557,7 +12121,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
@@ -10571,7 +12135,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="21"/>
@@ -10585,7 +12149,7 @@
     <n v="25"/>
     <n v="3"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -10599,7 +12163,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="21"/>
@@ -10613,7 +12177,7 @@
     <n v="25"/>
     <n v="3"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -10627,7 +12191,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="18"/>
@@ -10641,7 +12205,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="31"/>
@@ -10655,7 +12219,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="10"/>
@@ -10669,7 +12233,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="9"/>
@@ -10683,7 +12247,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -10697,7 +12261,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -10711,7 +12275,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="11"/>
@@ -10725,7 +12289,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="25"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="16"/>
@@ -10739,7 +12303,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -10753,7 +12317,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="16"/>
@@ -10767,7 +12331,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -10781,7 +12345,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="31"/>
@@ -10795,7 +12359,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -10809,7 +12373,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="8"/>
@@ -10823,7 +12387,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="19"/>
@@ -10837,7 +12401,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="16"/>
@@ -10851,7 +12415,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -10865,7 +12429,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="18"/>
@@ -10879,7 +12443,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="21"/>
@@ -10893,7 +12457,7 @@
     <n v="25"/>
     <n v="3"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="16"/>
@@ -10907,7 +12471,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -10921,7 +12485,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="8"/>
@@ -10935,7 +12499,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="19"/>
@@ -10949,7 +12513,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="16"/>
@@ -10963,7 +12527,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -10977,7 +12541,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="1"/>
@@ -10991,7 +12555,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="17"/>
@@ -11005,7 +12569,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="10"/>
@@ -11019,7 +12583,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -11033,7 +12597,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="33"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="18"/>
@@ -11047,7 +12611,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="19"/>
@@ -11061,7 +12625,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="22"/>
@@ -11075,7 +12639,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="18"/>
@@ -11089,7 +12653,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="18"/>
@@ -11103,7 +12667,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="8"/>
@@ -11117,7 +12681,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="23"/>
@@ -11131,7 +12695,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="17"/>
@@ -11145,7 +12709,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="32"/>
@@ -11159,7 +12723,7 @@
     <n v="21"/>
     <n v="1"/>
     <n v="8"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -11173,7 +12737,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="22"/>
@@ -11187,7 +12751,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="0"/>
@@ -11201,7 +12765,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="81"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="18"/>
@@ -11215,7 +12779,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -11229,7 +12793,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="22"/>
@@ -11243,7 +12807,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="25"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="22"/>
@@ -11257,7 +12821,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="17"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="23"/>
@@ -11271,7 +12835,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="23"/>
@@ -11285,7 +12849,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="22"/>
@@ -11299,7 +12863,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="23"/>
@@ -11313,7 +12877,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="26"/>
@@ -11327,7 +12891,7 @@
     <n v="36"/>
     <n v="0"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="23"/>
@@ -11341,7 +12905,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="22"/>
@@ -11355,7 +12919,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -11369,7 +12933,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -11383,7 +12947,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="22"/>
@@ -11397,7 +12961,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -11411,7 +12975,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -11425,7 +12989,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -11439,7 +13003,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -11453,7 +13017,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -11467,7 +13031,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="10"/>
@@ -11481,7 +13045,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -11495,7 +13059,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -11509,7 +13073,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="22"/>
@@ -11523,7 +13087,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -11537,7 +13101,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -11551,7 +13115,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="20"/>
@@ -11565,7 +13129,7 @@
     <n v="28"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="32"/>
@@ -11579,7 +13143,7 @@
     <n v="21"/>
     <n v="1"/>
     <n v="8"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -11593,7 +13157,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -11607,7 +13171,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -11621,7 +13185,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="22"/>
@@ -11635,7 +13199,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -11649,7 +13213,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -11663,7 +13227,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="23"/>
@@ -11677,7 +13241,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -11691,7 +13255,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="32"/>
@@ -11705,7 +13269,7 @@
     <n v="21"/>
     <n v="1"/>
     <n v="8"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="22"/>
@@ -11719,7 +13283,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -11733,7 +13297,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -11747,7 +13311,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -11761,7 +13325,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="31"/>
@@ -11775,7 +13339,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -11789,7 +13353,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -11803,7 +13367,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -11817,7 +13381,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="6"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="31"/>
@@ -11831,7 +13395,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -11845,7 +13409,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="10"/>
@@ -11859,7 +13423,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -11873,7 +13437,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -11887,7 +13451,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -11901,7 +13465,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="10"/>
@@ -11915,7 +13479,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -11929,7 +13493,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="27"/>
@@ -11943,7 +13507,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="113"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="27"/>
@@ -11957,7 +13521,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="10"/>
@@ -11971,7 +13535,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -11985,7 +13549,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -11999,7 +13563,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -12013,7 +13577,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -12027,7 +13591,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="22"/>
@@ -12041,7 +13605,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="8"/>
@@ -12055,7 +13619,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="31"/>
@@ -12069,7 +13633,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -12083,7 +13647,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -12097,7 +13661,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -12111,7 +13675,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="22"/>
@@ -12125,7 +13689,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -12139,7 +13703,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -12153,7 +13717,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="10"/>
@@ -12167,7 +13731,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -12181,7 +13745,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -12195,7 +13759,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="1"/>
@@ -12209,7 +13773,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="27"/>
@@ -12223,7 +13787,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -12237,7 +13801,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="10"/>
@@ -12251,7 +13815,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -12265,7 +13829,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="22"/>
@@ -12279,7 +13843,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -12293,7 +13857,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="22"/>
@@ -12307,7 +13871,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="1"/>
@@ -12321,7 +13885,7 @@
     <n v="30"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="105"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="2"/>
@@ -12335,7 +13899,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="0"/>
@@ -12349,7 +13913,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="25"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="21"/>
@@ -12363,7 +13927,7 @@
     <n v="25"/>
     <n v="3"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="33"/>
@@ -12377,7 +13941,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -12391,7 +13955,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -12405,7 +13969,7 @@
     <n v="31"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="16"/>
@@ -12419,7 +13983,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -12433,7 +13997,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="8"/>
@@ -12447,7 +14011,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="10"/>
@@ -12461,7 +14025,7 @@
     <n v="32"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="9"/>
@@ -12475,7 +14039,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="22"/>
@@ -12489,7 +14053,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="21"/>
@@ -12503,7 +14067,7 @@
     <n v="25"/>
     <n v="3"/>
     <n v="0"/>
-    <n v="25"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="23"/>
@@ -12517,7 +14081,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="4"/>
@@ -12531,7 +14095,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="8"/>
@@ -12545,7 +14109,7 @@
     <n v="27"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="16"/>
@@ -12559,7 +14123,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
@@ -12573,7 +14137,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="22"/>
@@ -12587,7 +14151,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -12601,7 +14165,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="31"/>
@@ -12615,7 +14179,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="22"/>
@@ -12629,7 +14193,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -12643,7 +14207,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -12657,7 +14221,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -12671,7 +14235,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="22"/>
@@ -12685,7 +14249,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
@@ -12699,7 +14263,7 @@
     <n v="29"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="16"/>
@@ -12713,7 +14277,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="20"/>
@@ -12727,7 +14291,7 @@
     <n v="28"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="17"/>
@@ -12741,7 +14305,7 @@
     <n v="38"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="31"/>
@@ -12755,7 +14319,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="22"/>
@@ -12769,7 +14333,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="20"/>
@@ -12783,7 +14347,7 @@
     <n v="28"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="19"/>
@@ -12797,7 +14361,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="29"/>
@@ -12811,7 +14375,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="65"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="20"/>
@@ -12825,7 +14389,7 @@
     <n v="28"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="22"/>
@@ -12839,7 +14403,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="4"/>
@@ -12853,7 +14417,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="4"/>
@@ -12867,7 +14431,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="4"/>
@@ -12881,7 +14445,7 @@
     <n v="31"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="16"/>
@@ -12895,7 +14459,7 @@
     <n v="28"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="25"/>
@@ -12909,7 +14473,7 @@
     <n v="21"/>
     <n v="2"/>
     <n v="4"/>
-    <n v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="22"/>
@@ -12923,7 +14487,7 @@
     <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="23"/>
@@ -12937,7 +14501,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="0"/>
@@ -12951,7 +14515,7 @@
     <n v="25"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="49"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="31"/>
@@ -12965,7 +14529,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="18"/>
@@ -12979,7 +14543,7 @@
     <n v="24"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="23"/>
@@ -12993,7 +14557,7 @@
     <n v="22"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="19"/>
@@ -13007,7 +14571,7 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="11"/>
@@ -13021,7 +14585,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="31"/>
@@ -13035,7 +14599,7 @@
     <n v="25"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="19"/>
@@ -13049,14 +14613,14 @@
     <n v="25"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B42E241-7E63-42F5-83F6-1ECE465BAF52}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B42E241-7E63-42F5-83F6-1ECE465BAF52}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="35">
@@ -13582,7 +15146,30 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" numFmtId="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="20">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item h="1" x="8"/>
+        <item h="1" x="0"/>
+        <item h="1" x="18"/>
+        <item h="1" x="13"/>
+        <item h="1" x="12"/>
+        <item h="1" x="14"/>
+        <item h="1" x="17"/>
+        <item h="1" x="16"/>
+        <item h="1" x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0">
       <items count="15">
         <item sd="0" x="0"/>
@@ -13628,7 +15215,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="25">
+  <rowItems count="24">
     <i>
       <x/>
     </i>
@@ -13681,9 +15268,6 @@
       <x v="23"/>
     </i>
     <i>
-      <x v="24"/>
-    </i>
-    <i>
       <x v="26"/>
     </i>
     <i>
@@ -13716,8 +15300,9 @@
       <x v="1"/>
     </i>
   </colItems>
-  <pageFields count="1">
+  <pageFields count="2">
     <pageField fld="1" hier="-1"/>
+    <pageField fld="11" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Count of ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
@@ -13736,31 +15321,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F5156A8-80FA-4141-A0F1-4EB01F2715A2}" name="Table53" displayName="Table53" ref="B2:E24" totalsRowShown="0" headerRowDxfId="12">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4907E18F-2887-4F47-B3F3-A13E7D6156B9}" name="Employee ID" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2772985A-F508-4A35-BAAD-05921BBCBE5B}" name="# of reported absences" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{8793C15E-E541-4DAE-8C5B-D841FEDF2214}" name="# of days off" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{70040476-6131-4CA8-9E00-7F4D422DEB65}" name="Bradford Factor" dataDxfId="10">
+      <calculatedColumnFormula>C3^2*D3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55150C54-BA19-4C80-9166-BFB5042F531C}" name="Table1" displayName="Table1" ref="A1:E701" totalsRowShown="0">
-  <autoFilter ref="A1:E701" xr:uid="{B1D106F4-BD52-47A9-8938-57D8ABAC7E0C}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-        <filter val="17"/>
-        <filter val="2"/>
-        <filter val="25"/>
-        <filter val="3"/>
-        <filter val="4"/>
-        <filter val="5"/>
-        <filter val="6"/>
-        <filter val="8"/>
-        <filter val="9"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E701" xr:uid="{B1D106F4-BD52-47A9-8938-57D8ABAC7E0C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F2FBD2D3-4410-4912-AA1C-F02B92535F5A}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{A7F549F1-C4C5-4EF1-982E-267C71AD886B}" name="Start" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{74120497-D278-41B0-835B-701C69CFF4D9}" name="Month and Year" dataDxfId="25">
+    <tableColumn id="2" xr3:uid="{A7F549F1-C4C5-4EF1-982E-267C71AD886B}" name="Start" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{74120497-D278-41B0-835B-701C69CFF4D9}" name="Month and Year" dataDxfId="22">
       <calculatedColumnFormula>DATE(YEAR(B2),MONTH(B2),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7B48DE0A-57EC-4BB6-9796-0111FCA6F37C}" name="End" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{29DB8B62-399A-4660-AD7C-363DB5015930}" name="Number of days" dataDxfId="23">
+    <tableColumn id="4" xr3:uid="{7B48DE0A-57EC-4BB6-9796-0111FCA6F37C}" name="End" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{29DB8B62-399A-4660-AD7C-363DB5015930}" name="Number of days" dataDxfId="20">
       <calculatedColumnFormula>_xlfn.DAYS(D2,B2)+1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13768,19 +15352,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{250D9310-AE34-43B9-AABC-738BBC0FFB34}" name="Table4" displayName="Table4" ref="A1:E44" totalsRowShown="0">
   <autoFilter ref="A1:E44" xr:uid="{250D9310-AE34-43B9-AABC-738BBC0FFB34}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6EBA38E3-106B-4B1E-9277-FED8472F209E}" name="Month Year" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{6EBA38E3-106B-4B1E-9277-FED8472F209E}" name="Month Year" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{D6CC8DE6-3475-45E7-9379-41C0FDE6A215}" name="Number of days"/>
     <tableColumn id="3" xr3:uid="{C6D28056-EC3B-4AD9-972E-EF001739EBAA}" name="Forecast(Number of days)">
       <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$36,$A$2:$A$36,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F3444982-9501-42A9-8CC4-82D483A14507}" name="Lower Confidence Bound(Number of days)" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{F3444982-9501-42A9-8CC4-82D483A14507}" name="Lower Confidence Bound(Number of days)" dataDxfId="18">
       <calculatedColumnFormula>C2-_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$36,$A$2:$A$36,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{10FE343D-DEA2-4A30-B8CE-2FCA19FF4F31}" name="Upper Confidence Bound(Number of days)" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{10FE343D-DEA2-4A30-B8CE-2FCA19FF4F31}" name="Upper Confidence Bound(Number of days)" dataDxfId="17">
       <calculatedColumnFormula>C2+_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$36,$A$2:$A$36,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13788,13 +15372,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE1D3894-BA67-4775-A5CF-D3FDC97410FC}" name="Table5" displayName="Table5" ref="A1:D25" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="A1:D25" xr:uid="{FE1D3894-BA67-4775-A5CF-D3FDC97410FC}"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE1D3894-BA67-4775-A5CF-D3FDC97410FC}" name="Table5" displayName="Table5" ref="A1:D24" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:D24" xr:uid="{FE1D3894-BA67-4775-A5CF-D3FDC97410FC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{302D8B53-A587-4572-8F91-BDFD187E2960}" name="Row Labels" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{7A07A4E3-EAE8-4C00-A345-993426980C8F}" name="Count of ID" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{667DD32D-28EA-4FDB-A290-C8FE4577709F}" name="Sum of Number of days" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{302D8B53-A587-4572-8F91-BDFD187E2960}" name="Row Labels" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{7A07A4E3-EAE8-4C00-A345-993426980C8F}" name="Count of ID" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{667DD32D-28EA-4FDB-A290-C8FE4577709F}" name="Sum of Number of days" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{0523F8EC-3E0D-4F2D-B3C8-C46C60E49907}" name="Bradford index">
       <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
     </tableColumn>
@@ -14119,15 +15703,402 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B528C6-EC04-4477-9741-134E35759C3F}">
+  <dimension ref="B2:E24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="4.09765625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="27.6">
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="9">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3">
+        <v>132</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E24" si="0">C3^2*D3</f>
+        <v>143748</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="9">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="9">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="9">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="9">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="9">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="9">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="9">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="9">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="9">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="9">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="9">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="9">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="9">
+        <v>22</v>
+      </c>
+      <c r="C16" s="8">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3">
+        <v>94</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>33934</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="9">
+        <v>23</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="9">
+        <v>25</v>
+      </c>
+      <c r="C18" s="8">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="9">
+        <v>28</v>
+      </c>
+      <c r="C19" s="8">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
+        <v>73</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>12337</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="9">
+        <v>29</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="9">
+        <v>32</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="9">
+        <v>33</v>
+      </c>
+      <c r="C22" s="8">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3">
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="9">
+        <v>34</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="9">
+        <v>36</v>
+      </c>
+      <c r="C24" s="8">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E3:E24">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="between">
+      <formula>45</formula>
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="between">
+      <formula>100</formula>
+      <formula>899</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThanOrEqual">
+      <formula>900</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D106F4-BD52-47A9-8938-57D8ABAC7E0C}">
   <dimension ref="A1:H701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G301" sqref="G301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
     <col min="2" max="2" width="12.8984375" customWidth="1"/>
     <col min="3" max="3" width="17.19921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.8984375" customWidth="1"/>
@@ -14160,7 +16131,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>14</v>
       </c>
@@ -14758,7 +16729,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>10</v>
       </c>
@@ -15329,7 +17300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>15</v>
       </c>
@@ -15918,7 +17889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>14</v>
       </c>
@@ -16089,7 +18060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>15</v>
       </c>
@@ -16260,7 +18231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>34</v>
       </c>
@@ -16374,7 +18345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>34</v>
       </c>
@@ -17419,7 +19390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1">
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>20</v>
       </c>
@@ -17457,7 +19428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1">
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>17</v>
       </c>
@@ -18236,7 +20207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>20</v>
       </c>
@@ -18635,7 +20606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>36</v>
       </c>
@@ -18958,7 +20929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>11</v>
       </c>
@@ -19680,7 +21651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>24</v>
       </c>
@@ -19851,7 +21822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>15</v>
       </c>
@@ -20079,7 +22050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>22</v>
       </c>
@@ -20516,7 +22487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>14</v>
       </c>
@@ -21257,7 +23228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>34</v>
       </c>
@@ -22378,7 +24349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1">
+    <row r="422" spans="1:5">
       <c r="A422">
         <v>36</v>
       </c>
@@ -22891,7 +24862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1">
+    <row r="449" spans="1:5">
       <c r="A449">
         <v>15</v>
       </c>
@@ -23366,7 +25337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1">
+    <row r="474" spans="1:5">
       <c r="A474">
         <v>28</v>
       </c>
@@ -24943,7 +26914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1">
+    <row r="557" spans="1:5">
       <c r="A557">
         <v>3</v>
       </c>
@@ -25171,7 +27142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1">
+    <row r="569" spans="1:5">
       <c r="A569">
         <v>14</v>
       </c>
@@ -26178,7 +28149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1">
+    <row r="622" spans="1:5">
       <c r="A622">
         <v>9</v>
       </c>
@@ -26691,7 +28662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1">
+    <row r="649" spans="1:5">
       <c r="A649">
         <v>11</v>
       </c>
@@ -27356,7 +29327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:5" hidden="1">
+    <row r="684" spans="1:5">
       <c r="A684">
         <v>26</v>
       </c>
@@ -27546,7 +29517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="694" spans="1:5" hidden="1">
+    <row r="694" spans="1:5">
       <c r="A694">
         <v>14</v>
       </c>
@@ -27706,12 +29677,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A11A6F-A8F6-4782-9EEA-9C27D3BC5415}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -27723,7 +29694,7 @@
     <col min="5" max="5" width="39.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -27740,7 +29711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>42186</v>
       </c>
@@ -27748,15 +29719,19 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>42217</v>
       </c>
       <c r="B3">
         <v>161</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3">
+        <f>AVERAGE(B2:B36)</f>
+        <v>155.22857142857143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>42248</v>
       </c>
@@ -27764,7 +29739,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>42278</v>
       </c>
@@ -27772,7 +29747,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>42309</v>
       </c>
@@ -27780,7 +29755,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>42339</v>
       </c>
@@ -27788,7 +29763,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>42370</v>
       </c>
@@ -27796,7 +29771,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>42401</v>
       </c>
@@ -27804,7 +29779,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>42430</v>
       </c>
@@ -27812,7 +29787,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>42461</v>
       </c>
@@ -27820,7 +29795,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>42491</v>
       </c>
@@ -27828,7 +29803,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>42522</v>
       </c>
@@ -27836,7 +29811,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>42552</v>
       </c>
@@ -27844,7 +29819,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>42583</v>
       </c>
@@ -27852,7 +29827,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>42614</v>
       </c>
@@ -28174,12 +30149,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C10EEA9-0D3F-4AC4-BF73-57EFCEAEE7EA}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -28208,7 +30183,7 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>2</v>
       </c>
       <c r="C2" s="3">
@@ -28223,14 +30198,14 @@
       <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>33</v>
       </c>
       <c r="C3" s="3">
         <v>132</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D25" si="0">B3*C3</f>
+        <f t="shared" ref="D3:D24" si="0">B3*C3</f>
         <v>4356</v>
       </c>
     </row>
@@ -28238,7 +30213,7 @@
       <c r="A4" s="6">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -28253,7 +30228,7 @@
       <c r="A5" s="6">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="3">
@@ -28268,22 +30243,22 @@
       <c r="A6" s="6">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>3</v>
+      <c r="B6" s="8">
+        <v>2</v>
       </c>
       <c r="C6" s="3">
         <v>120</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
       <c r="C7" s="3">
@@ -28298,22 +30273,22 @@
       <c r="A8" s="6">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>3</v>
+      <c r="B8" s="8">
+        <v>2</v>
       </c>
       <c r="C8" s="3">
         <v>123</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>369</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="3">
@@ -28328,7 +30303,7 @@
       <c r="A10" s="6">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>2</v>
       </c>
       <c r="C10" s="3">
@@ -28343,22 +30318,22 @@
       <c r="A11" s="6">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>5</v>
+      <c r="B11" s="8">
+        <v>4</v>
       </c>
       <c r="C11" s="3">
         <v>94</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>470</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>3</v>
       </c>
       <c r="C12" s="3">
@@ -28373,7 +30348,7 @@
       <c r="A13" s="6">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>1</v>
       </c>
       <c r="C13" s="3">
@@ -28388,7 +30363,7 @@
       <c r="A14" s="6">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>8</v>
       </c>
       <c r="C14" s="3">
@@ -28403,7 +30378,7 @@
       <c r="A15" s="6">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>1</v>
       </c>
       <c r="C15" s="3">
@@ -28418,7 +30393,7 @@
       <c r="A16" s="6">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>19</v>
       </c>
       <c r="C16" s="3">
@@ -28433,7 +30408,7 @@
       <c r="A17" s="6">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>1</v>
       </c>
       <c r="C17" s="3">
@@ -28448,7 +30423,7 @@
       <c r="A18" s="6">
         <v>25</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>7</v>
       </c>
       <c r="C18" s="3">
@@ -28461,123 +30436,108 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B19" s="8">
+        <v>13</v>
       </c>
       <c r="C19" s="3">
         <v>65</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="B20" s="8">
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <v>73</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>949</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
       </c>
       <c r="C21" s="3">
         <v>25</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6">
-        <v>32</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B22" s="8">
+        <v>7</v>
       </c>
       <c r="C22" s="3">
         <v>9</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6">
-        <v>33</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4</v>
       </c>
       <c r="C23" s="3">
         <v>35</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6">
-        <v>34</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="B24" s="8">
+        <v>5</v>
       </c>
       <c r="C24" s="3">
         <v>18</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6">
-        <v>36</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D25">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D2:D24">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
       <formula>45</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
       <formula>100</formula>
       <formula>899</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThanOrEqual">
       <formula>900</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28588,17 +30548,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29357084-540E-4E7F-A1DD-A61B3FC312AD}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="34" width="16.09765625" bestFit="1" customWidth="1"/>
@@ -28613,55 +30573,52 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6">
+    <row r="5" spans="1:3" ht="1.8" customHeight="1">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8">
+        <v>33</v>
       </c>
       <c r="C6" s="3">
-        <v>9</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="3">
@@ -28670,163 +30627,163 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
         <v>9</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6">
-        <v>11</v>
-      </c>
-      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8">
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6">
-        <v>12</v>
-      </c>
-      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8">
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6">
-        <v>13</v>
-      </c>
-      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8">
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4</v>
       </c>
       <c r="C14" s="3">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="8">
+        <v>8</v>
       </c>
       <c r="C17" s="3">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B19" s="8">
+        <v>19</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B21" s="8">
+        <v>7</v>
       </c>
       <c r="C21" s="3">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6">
         <v>28</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>13</v>
       </c>
       <c r="C22" s="3">
@@ -28837,7 +30794,7 @@
       <c r="A23" s="6">
         <v>29</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>4</v>
       </c>
       <c r="C23" s="3">
@@ -28848,7 +30805,7 @@
       <c r="A24" s="6">
         <v>32</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>1</v>
       </c>
       <c r="C24" s="3">
@@ -28859,7 +30816,7 @@
       <c r="A25" s="6">
         <v>33</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>7</v>
       </c>
       <c r="C25" s="3">
@@ -28870,7 +30827,7 @@
       <c r="A26" s="6">
         <v>34</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>4</v>
       </c>
       <c r="C26" s="3">
@@ -28881,7 +30838,7 @@
       <c r="A27" s="6">
         <v>36</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>5</v>
       </c>
       <c r="C27" s="3">
@@ -28892,11 +30849,11 @@
       <c r="A28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B28">
-        <v>130</v>
+      <c r="B28" s="8">
+        <v>126</v>
       </c>
       <c r="C28" s="3">
-        <v>995</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
